--- a/Aluguel/mesa.xlsx
+++ b/Aluguel/mesa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="65">
   <si>
     <t>str_fundo</t>
   </si>
@@ -37,9 +37,15 @@
     <t>tipo</t>
   </si>
   <si>
+    <t>KAPITALO K10 PREV II MASTER FIM</t>
+  </si>
+  <si>
     <t>KAPITALO K10 PREV MASTER FIM</t>
   </si>
   <si>
+    <t>KAPITALO KAPPA PREV II MASTER FIM</t>
+  </si>
+  <si>
     <t>KAPITALO KAPPA PREV MASTER FIM</t>
   </si>
   <si>
@@ -58,12 +64,78 @@
     <t>BRFS3 BZ EQUITY</t>
   </si>
   <si>
-    <t>CBAV3 BZ EQUITY</t>
+    <t>RRRP3 BZ EQUITY</t>
+  </si>
+  <si>
+    <t>EMBR3 BZ EQUITY</t>
+  </si>
+  <si>
+    <t>TIMS3 BZ EQUITY</t>
+  </si>
+  <si>
+    <t>VALE3 BZ EQUITY</t>
+  </si>
+  <si>
+    <t>CASH3 BZ EQUITY</t>
+  </si>
+  <si>
+    <t>CMIN3 BZ EQUITY</t>
+  </si>
+  <si>
+    <t>CVCB3 BZ EQUITY</t>
+  </si>
+  <si>
+    <t>GFSA3 BZ EQUITY</t>
+  </si>
+  <si>
+    <t>GOLL4 BZ EQUITY</t>
+  </si>
+  <si>
+    <t>JBSS3 BZ EQUITY</t>
+  </si>
+  <si>
+    <t>UGPA3 BZ EQUITY</t>
+  </si>
+  <si>
+    <t>VBBR3 BZ EQUITY</t>
+  </si>
+  <si>
+    <t>VIVT3 BZ EQUITY</t>
+  </si>
+  <si>
+    <t>ALPA4 BZ EQUITY</t>
+  </si>
+  <si>
+    <t>BBAS3 BZ EQUITY</t>
+  </si>
+  <si>
+    <t>BPAN4 BZ EQUITY</t>
+  </si>
+  <si>
+    <t>CIEL3 BZ EQUITY</t>
+  </si>
+  <si>
+    <t>SANB11 BZ EQUITY</t>
+  </si>
+  <si>
+    <t>BRAP4 BZ EQUITY</t>
+  </si>
+  <si>
+    <t>ELET6 BZ EQUITY</t>
+  </si>
+  <si>
+    <t>MULT3 BZ EQUITY</t>
+  </si>
+  <si>
+    <t>Arbitragem Aluguel</t>
   </si>
   <si>
     <t>Bolsa 2</t>
   </si>
   <si>
+    <t>CashCarry</t>
+  </si>
+  <si>
     <t>Kapitalo 11.1</t>
   </si>
   <si>
@@ -73,7 +145,67 @@
     <t>BRFS3</t>
   </si>
   <si>
-    <t>CBAV3</t>
+    <t>RRRP3</t>
+  </si>
+  <si>
+    <t>EMBR3</t>
+  </si>
+  <si>
+    <t>TIMS3</t>
+  </si>
+  <si>
+    <t>VALE3</t>
+  </si>
+  <si>
+    <t>CASH3</t>
+  </si>
+  <si>
+    <t>CMIN3</t>
+  </si>
+  <si>
+    <t>CVCB3</t>
+  </si>
+  <si>
+    <t>GFSA3</t>
+  </si>
+  <si>
+    <t>GOLL4</t>
+  </si>
+  <si>
+    <t>JBSS3</t>
+  </si>
+  <si>
+    <t>UGPA3</t>
+  </si>
+  <si>
+    <t>VBBR3</t>
+  </si>
+  <si>
+    <t>VIVT3</t>
+  </si>
+  <si>
+    <t>ALPA4</t>
+  </si>
+  <si>
+    <t>BBAS3</t>
+  </si>
+  <si>
+    <t>BPAN4</t>
+  </si>
+  <si>
+    <t>CIEL3</t>
+  </si>
+  <si>
+    <t>SANB11</t>
+  </si>
+  <si>
+    <t>BRAP4</t>
+  </si>
+  <si>
+    <t>ELET6</t>
+  </si>
+  <si>
+    <t>MULT3</t>
   </si>
   <si>
     <t>T</t>
@@ -434,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -465,574 +597,4214 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="G2">
-        <v>-11885</v>
+        <v>-10144</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="G3">
-        <v>-31962</v>
+        <v>-1901690</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>422</v>
+        <v>129</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="G4">
-        <v>-930</v>
+        <v>-1907</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>424</v>
+        <v>498</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="G5">
-        <v>-5264</v>
+        <v>-8</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>433</v>
+        <v>503</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="G6">
-        <v>-2585</v>
+        <v>-7</v>
       </c>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>434</v>
+        <v>514</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="G7">
-        <v>-14627</v>
+        <v>-13</v>
       </c>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>631</v>
+        <v>516</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="G8">
-        <v>-103</v>
+        <v>-2</v>
       </c>
       <c r="H8" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>633</v>
+        <v>552</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="G9">
-        <v>-586</v>
+        <v>-414</v>
       </c>
       <c r="H9" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>642</v>
+        <v>558</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="G10">
-        <v>-578</v>
+        <v>-76</v>
       </c>
       <c r="H10" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>643</v>
+        <v>559</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="G11">
-        <v>-3274</v>
+        <v>-345</v>
       </c>
       <c r="H11" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
-        <v>846</v>
+        <v>569</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="G12">
-        <v>-62</v>
+        <v>-284</v>
       </c>
       <c r="H12" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
-        <v>847</v>
+        <v>570</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="G13">
-        <v>-30</v>
+        <v>-1287</v>
       </c>
       <c r="H13" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1">
-        <v>856</v>
+        <v>584</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E14" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="F14" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="G14">
-        <v>-312</v>
+        <v>-152</v>
       </c>
       <c r="H14" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1">
-        <v>857</v>
+        <v>585</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="F15" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="G15">
-        <v>-155</v>
+        <v>-692</v>
       </c>
       <c r="H15" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1">
-        <v>1064</v>
+        <v>596</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E16" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="G16">
-        <v>-675</v>
+        <v>-364</v>
       </c>
       <c r="H16" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1">
-        <v>1065</v>
+        <v>604</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="G17">
-        <v>-337</v>
+        <v>-70</v>
       </c>
       <c r="H17" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1">
-        <v>1077</v>
+        <v>605</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E18" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="F18" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="G18">
-        <v>-3408</v>
+        <v>-320</v>
       </c>
       <c r="H18" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1">
-        <v>1078</v>
+        <v>612</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E19" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="F19" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="G19">
-        <v>-1703</v>
+        <v>-77</v>
       </c>
       <c r="H19" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1">
-        <v>1348</v>
+        <v>613</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E20" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="G20">
-        <v>-31871</v>
+        <v>-352</v>
       </c>
       <c r="H20" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1">
-        <v>1349</v>
+        <v>628</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E21" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="G21">
-        <v>-15935</v>
+        <v>-64</v>
       </c>
       <c r="H21" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1">
-        <v>1358</v>
+        <v>629</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E22" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="F22" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="G22">
-        <v>-160700</v>
+        <v>-298</v>
       </c>
       <c r="H22" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1">
-        <v>1359</v>
+        <v>711</v>
       </c>
       <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23">
+        <v>-33</v>
+      </c>
+      <c r="H23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1">
+        <v>712</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24">
+        <v>-464</v>
+      </c>
+      <c r="H24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1">
+        <v>713</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25">
+        <v>-150</v>
+      </c>
+      <c r="H25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1">
+        <v>716</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" t="s">
+        <v>53</v>
+      </c>
+      <c r="G26">
+        <v>-73</v>
+      </c>
+      <c r="H26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1">
+        <v>717</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" t="s">
+        <v>53</v>
+      </c>
+      <c r="G27">
+        <v>-336</v>
+      </c>
+      <c r="H27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1">
+        <v>723</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" t="s">
+        <v>40</v>
+      </c>
+      <c r="F28" t="s">
+        <v>46</v>
+      </c>
+      <c r="G28">
+        <v>-119</v>
+      </c>
+      <c r="H28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1">
+        <v>724</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" t="s">
+        <v>40</v>
+      </c>
+      <c r="F29" t="s">
+        <v>46</v>
+      </c>
+      <c r="G29">
+        <v>-1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1">
+        <v>727</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30" t="s">
+        <v>54</v>
+      </c>
+      <c r="G30">
+        <v>-62</v>
+      </c>
+      <c r="H30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1">
+        <v>728</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" t="s">
+        <v>54</v>
+      </c>
+      <c r="G31">
+        <v>-288</v>
+      </c>
+      <c r="H31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1">
+        <v>729</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" t="s">
+        <v>41</v>
+      </c>
+      <c r="F32" t="s">
+        <v>55</v>
+      </c>
+      <c r="G32">
+        <v>-43</v>
+      </c>
+      <c r="H32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="1">
+        <v>730</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" t="s">
+        <v>40</v>
+      </c>
+      <c r="F33" t="s">
+        <v>55</v>
+      </c>
+      <c r="G33">
+        <v>-198</v>
+      </c>
+      <c r="H33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1">
+        <v>797</v>
+      </c>
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" t="s">
+        <v>41</v>
+      </c>
+      <c r="F34" t="s">
+        <v>47</v>
+      </c>
+      <c r="G34">
+        <v>-12</v>
+      </c>
+      <c r="H34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="1">
+        <v>798</v>
+      </c>
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" t="s">
+        <v>47</v>
+      </c>
+      <c r="G35">
+        <v>-56</v>
+      </c>
+      <c r="H35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="1">
+        <v>808</v>
+      </c>
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" t="s">
+        <v>41</v>
+      </c>
+      <c r="F36" t="s">
+        <v>48</v>
+      </c>
+      <c r="G36">
+        <v>-49</v>
+      </c>
+      <c r="H36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="1">
+        <v>809</v>
+      </c>
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" t="s">
+        <v>40</v>
+      </c>
+      <c r="F37" t="s">
+        <v>48</v>
+      </c>
+      <c r="G37">
+        <v>-220</v>
+      </c>
+      <c r="H37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="1">
+        <v>823</v>
+      </c>
+      <c r="B38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38" t="s">
+        <v>41</v>
+      </c>
+      <c r="F38" t="s">
+        <v>49</v>
+      </c>
+      <c r="G38">
+        <v>-25</v>
+      </c>
+      <c r="H38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="1">
+        <v>824</v>
+      </c>
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>40</v>
+      </c>
+      <c r="F39" t="s">
+        <v>49</v>
+      </c>
+      <c r="G39">
+        <v>-112</v>
+      </c>
+      <c r="H39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="1">
+        <v>842</v>
+      </c>
+      <c r="B40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" t="s">
+        <v>38</v>
+      </c>
+      <c r="E40" t="s">
+        <v>41</v>
+      </c>
+      <c r="F40" t="s">
+        <v>50</v>
+      </c>
+      <c r="G40">
+        <v>-11</v>
+      </c>
+      <c r="H40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="1">
+        <v>843</v>
+      </c>
+      <c r="B41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" t="s">
+        <v>40</v>
+      </c>
+      <c r="F41" t="s">
+        <v>50</v>
+      </c>
+      <c r="G41">
+        <v>-52</v>
+      </c>
+      <c r="H41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="1">
+        <v>850</v>
+      </c>
+      <c r="B42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42" t="s">
+        <v>38</v>
+      </c>
+      <c r="E42" t="s">
+        <v>41</v>
+      </c>
+      <c r="F42" t="s">
+        <v>51</v>
+      </c>
+      <c r="G42">
+        <v>-13</v>
+      </c>
+      <c r="H42" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="1">
+        <v>851</v>
+      </c>
+      <c r="B43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" t="s">
+        <v>40</v>
+      </c>
+      <c r="F43" t="s">
+        <v>51</v>
+      </c>
+      <c r="G43">
+        <v>-59</v>
+      </c>
+      <c r="H43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1">
+        <v>870</v>
+      </c>
+      <c r="B44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" t="s">
+        <v>38</v>
+      </c>
+      <c r="E44" t="s">
+        <v>41</v>
+      </c>
+      <c r="F44" t="s">
+        <v>52</v>
+      </c>
+      <c r="G44">
+        <v>-10</v>
+      </c>
+      <c r="H44" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1">
+        <v>871</v>
+      </c>
+      <c r="B45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" t="s">
+        <v>38</v>
+      </c>
+      <c r="E45" t="s">
+        <v>40</v>
+      </c>
+      <c r="F45" t="s">
+        <v>52</v>
+      </c>
+      <c r="G45">
+        <v>-49</v>
+      </c>
+      <c r="H45" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1">
+        <v>959</v>
+      </c>
+      <c r="B46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" t="s">
+        <v>38</v>
+      </c>
+      <c r="E46" t="s">
+        <v>41</v>
+      </c>
+      <c r="F46" t="s">
+        <v>45</v>
+      </c>
+      <c r="G46">
+        <v>-6</v>
+      </c>
+      <c r="H46" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="1">
+        <v>960</v>
+      </c>
+      <c r="B47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" t="s">
+        <v>37</v>
+      </c>
+      <c r="E47" t="s">
+        <v>40</v>
+      </c>
+      <c r="F47" t="s">
+        <v>45</v>
+      </c>
+      <c r="G47">
+        <v>-74</v>
+      </c>
+      <c r="H47" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="1">
+        <v>961</v>
+      </c>
+      <c r="B48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" t="s">
+        <v>38</v>
+      </c>
+      <c r="E48" t="s">
+        <v>40</v>
+      </c>
+      <c r="F48" t="s">
+        <v>45</v>
+      </c>
+      <c r="G48">
+        <v>-25</v>
+      </c>
+      <c r="H48" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="1">
+        <v>964</v>
+      </c>
+      <c r="B49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49" t="s">
+        <v>38</v>
+      </c>
+      <c r="E49" t="s">
+        <v>41</v>
+      </c>
+      <c r="F49" t="s">
+        <v>53</v>
+      </c>
+      <c r="G49">
+        <v>-13</v>
+      </c>
+      <c r="H49" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="1">
+        <v>965</v>
+      </c>
+      <c r="B50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" t="s">
+        <v>26</v>
+      </c>
+      <c r="D50" t="s">
+        <v>38</v>
+      </c>
+      <c r="E50" t="s">
+        <v>40</v>
+      </c>
+      <c r="F50" t="s">
+        <v>53</v>
+      </c>
+      <c r="G50">
+        <v>-58</v>
+      </c>
+      <c r="H50" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="1">
+        <v>971</v>
+      </c>
+      <c r="B51" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" t="s">
+        <v>37</v>
+      </c>
+      <c r="E51" t="s">
+        <v>40</v>
+      </c>
+      <c r="F51" t="s">
+        <v>46</v>
+      </c>
+      <c r="G51">
+        <v>-20</v>
+      </c>
+      <c r="H51" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="1">
+        <v>975</v>
+      </c>
+      <c r="B52" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" t="s">
+        <v>27</v>
+      </c>
+      <c r="D52" t="s">
+        <v>38</v>
+      </c>
+      <c r="E52" t="s">
+        <v>41</v>
+      </c>
+      <c r="F52" t="s">
+        <v>54</v>
+      </c>
+      <c r="G52">
+        <v>-11</v>
+      </c>
+      <c r="H52" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="1">
+        <v>976</v>
+      </c>
+      <c r="B53" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" t="s">
+        <v>27</v>
+      </c>
+      <c r="D53" t="s">
+        <v>38</v>
+      </c>
+      <c r="E53" t="s">
+        <v>40</v>
+      </c>
+      <c r="F53" t="s">
+        <v>54</v>
+      </c>
+      <c r="G53">
+        <v>-49</v>
+      </c>
+      <c r="H53" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="1">
+        <v>977</v>
+      </c>
+      <c r="B54" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" t="s">
+        <v>28</v>
+      </c>
+      <c r="D54" t="s">
+        <v>38</v>
+      </c>
+      <c r="E54" t="s">
+        <v>41</v>
+      </c>
+      <c r="F54" t="s">
+        <v>55</v>
+      </c>
+      <c r="G54">
+        <v>-7</v>
+      </c>
+      <c r="H54" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="1">
+        <v>978</v>
+      </c>
+      <c r="B55" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" t="s">
+        <v>28</v>
+      </c>
+      <c r="D55" t="s">
+        <v>38</v>
+      </c>
+      <c r="E55" t="s">
+        <v>40</v>
+      </c>
+      <c r="F55" t="s">
+        <v>55</v>
+      </c>
+      <c r="G55">
+        <v>-32</v>
+      </c>
+      <c r="H55" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="1">
+        <v>988</v>
+      </c>
+      <c r="B56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" t="s">
+        <v>37</v>
+      </c>
+      <c r="E56" t="s">
+        <v>40</v>
+      </c>
+      <c r="F56" t="s">
+        <v>42</v>
+      </c>
+      <c r="G56">
+        <v>-67</v>
+      </c>
+      <c r="H56" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="1">
+        <v>990</v>
+      </c>
+      <c r="B57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" t="s">
+        <v>37</v>
+      </c>
+      <c r="E57" t="s">
+        <v>40</v>
+      </c>
+      <c r="F57" t="s">
+        <v>44</v>
+      </c>
+      <c r="G57">
+        <v>-59</v>
+      </c>
+      <c r="H57" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="1">
+        <v>1009</v>
+      </c>
+      <c r="B58" t="s">
         <v>12</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C58" t="s">
+        <v>29</v>
+      </c>
+      <c r="D58" t="s">
+        <v>38</v>
+      </c>
+      <c r="E58" t="s">
+        <v>41</v>
+      </c>
+      <c r="F58" t="s">
+        <v>56</v>
+      </c>
+      <c r="G58">
+        <v>-24</v>
+      </c>
+      <c r="H58" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="1">
+        <v>1010</v>
+      </c>
+      <c r="B59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" t="s">
+        <v>29</v>
+      </c>
+      <c r="D59" t="s">
+        <v>38</v>
+      </c>
+      <c r="E59" t="s">
+        <v>40</v>
+      </c>
+      <c r="F59" t="s">
+        <v>56</v>
+      </c>
+      <c r="G59">
+        <v>-12</v>
+      </c>
+      <c r="H59" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="1">
+        <v>1029</v>
+      </c>
+      <c r="B60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" t="s">
+        <v>30</v>
+      </c>
+      <c r="D60" t="s">
+        <v>38</v>
+      </c>
+      <c r="E60" t="s">
+        <v>41</v>
+      </c>
+      <c r="F60" t="s">
+        <v>57</v>
+      </c>
+      <c r="G60">
+        <v>-13</v>
+      </c>
+      <c r="H60" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="1">
+        <v>1030</v>
+      </c>
+      <c r="B61" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" t="s">
+        <v>30</v>
+      </c>
+      <c r="D61" t="s">
+        <v>38</v>
+      </c>
+      <c r="E61" t="s">
+        <v>40</v>
+      </c>
+      <c r="F61" t="s">
+        <v>57</v>
+      </c>
+      <c r="G61">
+        <v>-6</v>
+      </c>
+      <c r="H61" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="1">
+        <v>1039</v>
+      </c>
+      <c r="B62" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" t="s">
+        <v>31</v>
+      </c>
+      <c r="D62" t="s">
+        <v>38</v>
+      </c>
+      <c r="E62" t="s">
+        <v>41</v>
+      </c>
+      <c r="F62" t="s">
+        <v>58</v>
+      </c>
+      <c r="G62">
+        <v>-18</v>
+      </c>
+      <c r="H62" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="1">
+        <v>1040</v>
+      </c>
+      <c r="B63" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" t="s">
+        <v>31</v>
+      </c>
+      <c r="D63" t="s">
+        <v>38</v>
+      </c>
+      <c r="E63" t="s">
+        <v>40</v>
+      </c>
+      <c r="F63" t="s">
+        <v>58</v>
+      </c>
+      <c r="G63">
+        <v>-9</v>
+      </c>
+      <c r="H63" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="1">
+        <v>1045</v>
+      </c>
+      <c r="B64" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" t="s">
+        <v>20</v>
+      </c>
+      <c r="D64" t="s">
+        <v>38</v>
+      </c>
+      <c r="E64" t="s">
+        <v>41</v>
+      </c>
+      <c r="F64" t="s">
+        <v>47</v>
+      </c>
+      <c r="G64">
+        <v>-26</v>
+      </c>
+      <c r="H64" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="1">
+        <v>1046</v>
+      </c>
+      <c r="B65" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" t="s">
+        <v>20</v>
+      </c>
+      <c r="D65" t="s">
+        <v>38</v>
+      </c>
+      <c r="E65" t="s">
+        <v>40</v>
+      </c>
+      <c r="F65" t="s">
+        <v>47</v>
+      </c>
+      <c r="G65">
+        <v>-12</v>
+      </c>
+      <c r="H65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="1">
+        <v>1053</v>
+      </c>
+      <c r="B66" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" t="s">
+        <v>32</v>
+      </c>
+      <c r="D66" t="s">
+        <v>38</v>
+      </c>
+      <c r="E66" t="s">
+        <v>41</v>
+      </c>
+      <c r="F66" t="s">
+        <v>59</v>
+      </c>
+      <c r="G66">
+        <v>-149</v>
+      </c>
+      <c r="H66" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="1">
+        <v>1054</v>
+      </c>
+      <c r="B67" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" t="s">
+        <v>32</v>
+      </c>
+      <c r="D67" t="s">
+        <v>38</v>
+      </c>
+      <c r="E67" t="s">
+        <v>40</v>
+      </c>
+      <c r="F67" t="s">
+        <v>59</v>
+      </c>
+      <c r="G67">
+        <v>-72</v>
+      </c>
+      <c r="H67" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="1">
+        <v>1057</v>
+      </c>
+      <c r="B68" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" t="s">
+        <v>21</v>
+      </c>
+      <c r="D68" t="s">
+        <v>38</v>
+      </c>
+      <c r="E68" t="s">
+        <v>41</v>
+      </c>
+      <c r="F68" t="s">
+        <v>48</v>
+      </c>
+      <c r="G68">
+        <v>-96</v>
+      </c>
+      <c r="H68" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="1">
+        <v>1058</v>
+      </c>
+      <c r="B69" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" t="s">
+        <v>21</v>
+      </c>
+      <c r="D69" t="s">
+        <v>38</v>
+      </c>
+      <c r="E69" t="s">
+        <v>40</v>
+      </c>
+      <c r="F69" t="s">
+        <v>48</v>
+      </c>
+      <c r="G69">
+        <v>-47</v>
+      </c>
+      <c r="H69" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="1">
+        <v>1069</v>
+      </c>
+      <c r="B70" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" t="s">
+        <v>22</v>
+      </c>
+      <c r="D70" t="s">
+        <v>38</v>
+      </c>
+      <c r="E70" t="s">
+        <v>41</v>
+      </c>
+      <c r="F70" t="s">
+        <v>49</v>
+      </c>
+      <c r="G70">
+        <v>-51</v>
+      </c>
+      <c r="H70" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="1">
+        <v>1070</v>
+      </c>
+      <c r="B71" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" t="s">
+        <v>22</v>
+      </c>
+      <c r="D71" t="s">
+        <v>38</v>
+      </c>
+      <c r="E71" t="s">
+        <v>40</v>
+      </c>
+      <c r="F71" t="s">
+        <v>49</v>
+      </c>
+      <c r="G71">
+        <v>-26</v>
+      </c>
+      <c r="H71" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="1">
+        <v>1087</v>
+      </c>
+      <c r="B72" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72" t="s">
+        <v>23</v>
+      </c>
+      <c r="D72" t="s">
+        <v>38</v>
+      </c>
+      <c r="E72" t="s">
+        <v>41</v>
+      </c>
+      <c r="F72" t="s">
+        <v>50</v>
+      </c>
+      <c r="G72">
+        <v>-23</v>
+      </c>
+      <c r="H72" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="1">
+        <v>1088</v>
+      </c>
+      <c r="B73" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" t="s">
+        <v>23</v>
+      </c>
+      <c r="D73" t="s">
+        <v>38</v>
+      </c>
+      <c r="E73" t="s">
+        <v>40</v>
+      </c>
+      <c r="F73" t="s">
+        <v>50</v>
+      </c>
+      <c r="G73">
+        <v>-12</v>
+      </c>
+      <c r="H73" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="1">
+        <v>1095</v>
+      </c>
+      <c r="B74" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74" t="s">
+        <v>24</v>
+      </c>
+      <c r="D74" t="s">
+        <v>38</v>
+      </c>
+      <c r="E74" t="s">
+        <v>41</v>
+      </c>
+      <c r="F74" t="s">
+        <v>51</v>
+      </c>
+      <c r="G74">
+        <v>-26</v>
+      </c>
+      <c r="H74" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="1">
+        <v>1096</v>
+      </c>
+      <c r="B75" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" t="s">
+        <v>24</v>
+      </c>
+      <c r="D75" t="s">
+        <v>38</v>
+      </c>
+      <c r="E75" t="s">
+        <v>40</v>
+      </c>
+      <c r="F75" t="s">
+        <v>51</v>
+      </c>
+      <c r="G75">
+        <v>-13</v>
+      </c>
+      <c r="H75" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="1">
+        <v>1173</v>
+      </c>
+      <c r="B76" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76" t="s">
+        <v>16</v>
+      </c>
+      <c r="D76" t="s">
+        <v>38</v>
+      </c>
+      <c r="E76" t="s">
+        <v>41</v>
+      </c>
+      <c r="F76" t="s">
+        <v>43</v>
+      </c>
+      <c r="G76">
+        <v>-3</v>
+      </c>
+      <c r="H76" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="1">
+        <v>1174</v>
+      </c>
+      <c r="B77" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77" t="s">
+        <v>16</v>
+      </c>
+      <c r="D77" t="s">
+        <v>38</v>
+      </c>
+      <c r="E77" t="s">
+        <v>40</v>
+      </c>
+      <c r="F77" t="s">
+        <v>43</v>
+      </c>
+      <c r="G77">
+        <v>-2</v>
+      </c>
+      <c r="H77" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="1">
+        <v>1175</v>
+      </c>
+      <c r="B78" t="s">
+        <v>12</v>
+      </c>
+      <c r="C78" t="s">
+        <v>33</v>
+      </c>
+      <c r="D78" t="s">
+        <v>38</v>
+      </c>
+      <c r="E78" t="s">
+        <v>41</v>
+      </c>
+      <c r="F78" t="s">
+        <v>60</v>
+      </c>
+      <c r="G78">
+        <v>-19</v>
+      </c>
+      <c r="H78" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="1">
+        <v>1176</v>
+      </c>
+      <c r="B79" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79" t="s">
+        <v>33</v>
+      </c>
+      <c r="D79" t="s">
+        <v>38</v>
+      </c>
+      <c r="E79" t="s">
+        <v>40</v>
+      </c>
+      <c r="F79" t="s">
+        <v>60</v>
+      </c>
+      <c r="G79">
+        <v>-11</v>
+      </c>
+      <c r="H79" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="1">
+        <v>1199</v>
+      </c>
+      <c r="B80" t="s">
+        <v>12</v>
+      </c>
+      <c r="C80" t="s">
+        <v>18</v>
+      </c>
+      <c r="D80" t="s">
+        <v>38</v>
+      </c>
+      <c r="E80" t="s">
+        <v>41</v>
+      </c>
+      <c r="F80" t="s">
+        <v>45</v>
+      </c>
+      <c r="G80">
+        <v>-40</v>
+      </c>
+      <c r="H80" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="1">
+        <v>1200</v>
+      </c>
+      <c r="B81" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81" t="s">
+        <v>18</v>
+      </c>
+      <c r="D81" t="s">
+        <v>38</v>
+      </c>
+      <c r="E81" t="s">
+        <v>40</v>
+      </c>
+      <c r="F81" t="s">
+        <v>45</v>
+      </c>
+      <c r="G81">
+        <v>-19</v>
+      </c>
+      <c r="H81" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="1">
+        <v>1203</v>
+      </c>
+      <c r="B82" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82" t="s">
+        <v>26</v>
+      </c>
+      <c r="D82" t="s">
+        <v>38</v>
+      </c>
+      <c r="E82" t="s">
+        <v>41</v>
+      </c>
+      <c r="F82" t="s">
+        <v>53</v>
+      </c>
+      <c r="G82">
+        <v>-24</v>
+      </c>
+      <c r="H82" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="1">
+        <v>1204</v>
+      </c>
+      <c r="B83" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83" t="s">
+        <v>26</v>
+      </c>
+      <c r="D83" t="s">
+        <v>38</v>
+      </c>
+      <c r="E83" t="s">
+        <v>40</v>
+      </c>
+      <c r="F83" t="s">
+        <v>53</v>
+      </c>
+      <c r="G83">
+        <v>-13</v>
+      </c>
+      <c r="H83" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="1">
+        <v>1209</v>
+      </c>
+      <c r="B84" t="s">
+        <v>12</v>
+      </c>
+      <c r="C84" t="s">
+        <v>19</v>
+      </c>
+      <c r="D84" t="s">
+        <v>38</v>
+      </c>
+      <c r="E84" t="s">
+        <v>41</v>
+      </c>
+      <c r="F84" t="s">
+        <v>46</v>
+      </c>
+      <c r="G84">
+        <v>-7</v>
+      </c>
+      <c r="H84" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="1">
+        <v>1210</v>
+      </c>
+      <c r="B85" t="s">
+        <v>12</v>
+      </c>
+      <c r="C85" t="s">
+        <v>19</v>
+      </c>
+      <c r="D85" t="s">
+        <v>38</v>
+      </c>
+      <c r="E85" t="s">
+        <v>40</v>
+      </c>
+      <c r="F85" t="s">
+        <v>46</v>
+      </c>
+      <c r="G85">
+        <v>-4</v>
+      </c>
+      <c r="H85" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="1">
+        <v>1213</v>
+      </c>
+      <c r="B86" t="s">
+        <v>12</v>
+      </c>
+      <c r="C86" t="s">
+        <v>27</v>
+      </c>
+      <c r="D86" t="s">
+        <v>38</v>
+      </c>
+      <c r="E86" t="s">
+        <v>41</v>
+      </c>
+      <c r="F86" t="s">
+        <v>54</v>
+      </c>
+      <c r="G86">
+        <v>-21</v>
+      </c>
+      <c r="H86" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="1">
+        <v>1214</v>
+      </c>
+      <c r="B87" t="s">
+        <v>12</v>
+      </c>
+      <c r="C87" t="s">
+        <v>27</v>
+      </c>
+      <c r="D87" t="s">
+        <v>38</v>
+      </c>
+      <c r="E87" t="s">
+        <v>40</v>
+      </c>
+      <c r="F87" t="s">
+        <v>54</v>
+      </c>
+      <c r="G87">
+        <v>-11</v>
+      </c>
+      <c r="H87" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="1">
+        <v>1215</v>
+      </c>
+      <c r="B88" t="s">
+        <v>12</v>
+      </c>
+      <c r="C88" t="s">
+        <v>28</v>
+      </c>
+      <c r="D88" t="s">
+        <v>38</v>
+      </c>
+      <c r="E88" t="s">
+        <v>41</v>
+      </c>
+      <c r="F88" t="s">
+        <v>55</v>
+      </c>
+      <c r="G88">
+        <v>-15</v>
+      </c>
+      <c r="H88" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="1">
+        <v>1216</v>
+      </c>
+      <c r="B89" t="s">
+        <v>12</v>
+      </c>
+      <c r="C89" t="s">
+        <v>28</v>
+      </c>
+      <c r="D89" t="s">
+        <v>38</v>
+      </c>
+      <c r="E89" t="s">
+        <v>40</v>
+      </c>
+      <c r="F89" t="s">
+        <v>55</v>
+      </c>
+      <c r="G89">
+        <v>-7</v>
+      </c>
+      <c r="H89" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="1">
+        <v>1238</v>
+      </c>
+      <c r="B90" t="s">
+        <v>13</v>
+      </c>
+      <c r="C90" t="s">
+        <v>29</v>
+      </c>
+      <c r="D90" t="s">
+        <v>39</v>
+      </c>
+      <c r="E90" t="s">
+        <v>40</v>
+      </c>
+      <c r="F90" t="s">
+        <v>56</v>
+      </c>
+      <c r="G90">
+        <v>-1515</v>
+      </c>
+      <c r="H90" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="1">
+        <v>1261</v>
+      </c>
+      <c r="B91" t="s">
+        <v>13</v>
+      </c>
+      <c r="C91" t="s">
+        <v>30</v>
+      </c>
+      <c r="D91" t="s">
+        <v>38</v>
+      </c>
+      <c r="E91" t="s">
+        <v>41</v>
+      </c>
+      <c r="F91" t="s">
+        <v>57</v>
+      </c>
+      <c r="G91">
+        <v>-1</v>
+      </c>
+      <c r="H91" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="1">
+        <v>1262</v>
+      </c>
+      <c r="B92" t="s">
+        <v>13</v>
+      </c>
+      <c r="C92" t="s">
+        <v>30</v>
+      </c>
+      <c r="D92" t="s">
+        <v>38</v>
+      </c>
+      <c r="E92" t="s">
+        <v>40</v>
+      </c>
+      <c r="F92" t="s">
+        <v>57</v>
+      </c>
+      <c r="G92">
+        <v>-1</v>
+      </c>
+      <c r="H92" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="1">
+        <v>1263</v>
+      </c>
+      <c r="B93" t="s">
+        <v>13</v>
+      </c>
+      <c r="C93" t="s">
+        <v>30</v>
+      </c>
+      <c r="D93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E93" t="s">
+        <v>40</v>
+      </c>
+      <c r="F93" t="s">
+        <v>57</v>
+      </c>
+      <c r="G93">
+        <v>-260</v>
+      </c>
+      <c r="H93" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="1">
+        <v>1278</v>
+      </c>
+      <c r="B94" t="s">
+        <v>13</v>
+      </c>
+      <c r="C94" t="s">
+        <v>31</v>
+      </c>
+      <c r="D94" t="s">
+        <v>38</v>
+      </c>
+      <c r="E94" t="s">
+        <v>41</v>
+      </c>
+      <c r="F94" t="s">
+        <v>58</v>
+      </c>
+      <c r="G94">
+        <v>-233</v>
+      </c>
+      <c r="H94" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="1">
+        <v>1279</v>
+      </c>
+      <c r="B95" t="s">
+        <v>13</v>
+      </c>
+      <c r="C95" t="s">
+        <v>31</v>
+      </c>
+      <c r="D95" t="s">
+        <v>38</v>
+      </c>
+      <c r="E95" t="s">
+        <v>40</v>
+      </c>
+      <c r="F95" t="s">
+        <v>58</v>
+      </c>
+      <c r="G95">
+        <v>-114</v>
+      </c>
+      <c r="H95" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="1">
+        <v>1285</v>
+      </c>
+      <c r="B96" t="s">
+        <v>13</v>
+      </c>
+      <c r="C96" t="s">
+        <v>20</v>
+      </c>
+      <c r="D96" t="s">
+        <v>38</v>
+      </c>
+      <c r="E96" t="s">
+        <v>41</v>
+      </c>
+      <c r="F96" t="s">
+        <v>47</v>
+      </c>
+      <c r="G96">
+        <v>-317</v>
+      </c>
+      <c r="H96" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="1">
+        <v>1286</v>
+      </c>
+      <c r="B97" t="s">
+        <v>13</v>
+      </c>
+      <c r="C97" t="s">
+        <v>20</v>
+      </c>
+      <c r="D97" t="s">
+        <v>38</v>
+      </c>
+      <c r="E97" t="s">
+        <v>40</v>
+      </c>
+      <c r="F97" t="s">
+        <v>47</v>
+      </c>
+      <c r="G97">
+        <v>-157</v>
+      </c>
+      <c r="H97" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="1">
+        <v>1287</v>
+      </c>
+      <c r="B98" t="s">
+        <v>13</v>
+      </c>
+      <c r="C98" t="s">
+        <v>20</v>
+      </c>
+      <c r="D98" t="s">
+        <v>39</v>
+      </c>
+      <c r="E98" t="s">
+        <v>40</v>
+      </c>
+      <c r="F98" t="s">
+        <v>47</v>
+      </c>
+      <c r="G98">
+        <v>-19</v>
+      </c>
+      <c r="H98" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="1">
+        <v>1297</v>
+      </c>
+      <c r="B99" t="s">
+        <v>13</v>
+      </c>
+      <c r="C99" t="s">
+        <v>32</v>
+      </c>
+      <c r="D99" t="s">
+        <v>39</v>
+      </c>
+      <c r="E99" t="s">
+        <v>40</v>
+      </c>
+      <c r="F99" t="s">
+        <v>59</v>
+      </c>
+      <c r="G99">
+        <v>-3162</v>
+      </c>
+      <c r="H99" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="1">
+        <v>1301</v>
+      </c>
+      <c r="B100" t="s">
+        <v>13</v>
+      </c>
+      <c r="C100" t="s">
+        <v>21</v>
+      </c>
+      <c r="D100" t="s">
+        <v>38</v>
+      </c>
+      <c r="E100" t="s">
+        <v>41</v>
+      </c>
+      <c r="F100" t="s">
+        <v>48</v>
+      </c>
+      <c r="G100">
+        <v>-290</v>
+      </c>
+      <c r="H100" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="1">
+        <v>1302</v>
+      </c>
+      <c r="B101" t="s">
+        <v>13</v>
+      </c>
+      <c r="C101" t="s">
+        <v>21</v>
+      </c>
+      <c r="D101" t="s">
+        <v>38</v>
+      </c>
+      <c r="E101" t="s">
+        <v>40</v>
+      </c>
+      <c r="F101" t="s">
+        <v>48</v>
+      </c>
+      <c r="G101">
+        <v>-142</v>
+      </c>
+      <c r="H101" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="1">
+        <v>1303</v>
+      </c>
+      <c r="B102" t="s">
+        <v>13</v>
+      </c>
+      <c r="C102" t="s">
+        <v>21</v>
+      </c>
+      <c r="D102" t="s">
+        <v>39</v>
+      </c>
+      <c r="E102" t="s">
+        <v>40</v>
+      </c>
+      <c r="F102" t="s">
+        <v>48</v>
+      </c>
+      <c r="G102">
+        <v>-1383</v>
+      </c>
+      <c r="H102" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="1">
+        <v>1318</v>
+      </c>
+      <c r="B103" t="s">
+        <v>13</v>
+      </c>
+      <c r="C103" t="s">
+        <v>22</v>
+      </c>
+      <c r="D103" t="s">
+        <v>38</v>
+      </c>
+      <c r="E103" t="s">
+        <v>41</v>
+      </c>
+      <c r="F103" t="s">
+        <v>49</v>
+      </c>
+      <c r="G103">
+        <v>-6192</v>
+      </c>
+      <c r="H103" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="1">
+        <v>1319</v>
+      </c>
+      <c r="B104" t="s">
+        <v>13</v>
+      </c>
+      <c r="C104" t="s">
+        <v>22</v>
+      </c>
+      <c r="D104" t="s">
+        <v>38</v>
+      </c>
+      <c r="E104" t="s">
+        <v>40</v>
+      </c>
+      <c r="F104" t="s">
+        <v>49</v>
+      </c>
+      <c r="G104">
+        <v>-3022</v>
+      </c>
+      <c r="H104" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="1">
+        <v>1340</v>
+      </c>
+      <c r="B105" t="s">
+        <v>13</v>
+      </c>
+      <c r="C105" t="s">
+        <v>23</v>
+      </c>
+      <c r="D105" t="s">
+        <v>38</v>
+      </c>
+      <c r="E105" t="s">
+        <v>41</v>
+      </c>
+      <c r="F105" t="s">
+        <v>50</v>
+      </c>
+      <c r="G105">
+        <v>-304</v>
+      </c>
+      <c r="H105" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="1">
+        <v>1341</v>
+      </c>
+      <c r="B106" t="s">
+        <v>13</v>
+      </c>
+      <c r="C106" t="s">
+        <v>23</v>
+      </c>
+      <c r="D106" t="s">
+        <v>38</v>
+      </c>
+      <c r="E106" t="s">
+        <v>40</v>
+      </c>
+      <c r="F106" t="s">
+        <v>50</v>
+      </c>
+      <c r="G106">
+        <v>-158</v>
+      </c>
+      <c r="H106" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="1">
+        <v>1351</v>
+      </c>
+      <c r="B107" t="s">
+        <v>13</v>
+      </c>
+      <c r="C107" t="s">
+        <v>24</v>
+      </c>
+      <c r="D107" t="s">
+        <v>39</v>
+      </c>
+      <c r="E107" t="s">
+        <v>40</v>
+      </c>
+      <c r="F107" t="s">
+        <v>51</v>
+      </c>
+      <c r="G107">
+        <v>-635</v>
+      </c>
+      <c r="H107" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="1">
+        <v>1449</v>
+      </c>
+      <c r="B108" t="s">
+        <v>13</v>
+      </c>
+      <c r="C108" t="s">
+        <v>16</v>
+      </c>
+      <c r="D108" t="s">
+        <v>38</v>
+      </c>
+      <c r="E108" t="s">
+        <v>41</v>
+      </c>
+      <c r="F108" t="s">
+        <v>43</v>
+      </c>
+      <c r="G108">
+        <v>-44</v>
+      </c>
+      <c r="H108" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="1">
+        <v>1450</v>
+      </c>
+      <c r="B109" t="s">
+        <v>13</v>
+      </c>
+      <c r="C109" t="s">
+        <v>16</v>
+      </c>
+      <c r="D109" t="s">
+        <v>38</v>
+      </c>
+      <c r="E109" t="s">
+        <v>40</v>
+      </c>
+      <c r="F109" t="s">
+        <v>43</v>
+      </c>
+      <c r="G109">
+        <v>-22</v>
+      </c>
+      <c r="H109" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="1">
+        <v>1452</v>
+      </c>
+      <c r="B110" t="s">
+        <v>13</v>
+      </c>
+      <c r="C110" t="s">
+        <v>33</v>
+      </c>
+      <c r="D110" t="s">
+        <v>38</v>
+      </c>
+      <c r="E110" t="s">
+        <v>41</v>
+      </c>
+      <c r="F110" t="s">
+        <v>60</v>
+      </c>
+      <c r="G110">
+        <v>-15</v>
+      </c>
+      <c r="H110" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="1">
+        <v>1453</v>
+      </c>
+      <c r="B111" t="s">
+        <v>13</v>
+      </c>
+      <c r="C111" t="s">
+        <v>33</v>
+      </c>
+      <c r="D111" t="s">
+        <v>38</v>
+      </c>
+      <c r="E111" t="s">
+        <v>40</v>
+      </c>
+      <c r="F111" t="s">
+        <v>60</v>
+      </c>
+      <c r="G111">
+        <v>-8</v>
+      </c>
+      <c r="H111" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="1">
+        <v>1454</v>
+      </c>
+      <c r="B112" t="s">
+        <v>13</v>
+      </c>
+      <c r="C112" t="s">
+        <v>33</v>
+      </c>
+      <c r="D112" t="s">
+        <v>39</v>
+      </c>
+      <c r="E112" t="s">
+        <v>40</v>
+      </c>
+      <c r="F112" t="s">
+        <v>60</v>
+      </c>
+      <c r="G112">
+        <v>-372</v>
+      </c>
+      <c r="H112" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="1">
+        <v>1482</v>
+      </c>
+      <c r="B113" t="s">
+        <v>13</v>
+      </c>
+      <c r="C113" t="s">
+        <v>18</v>
+      </c>
+      <c r="D113" t="s">
+        <v>38</v>
+      </c>
+      <c r="E113" t="s">
+        <v>41</v>
+      </c>
+      <c r="F113" t="s">
+        <v>45</v>
+      </c>
+      <c r="G113">
+        <v>-97</v>
+      </c>
+      <c r="H113" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" s="1">
+        <v>1483</v>
+      </c>
+      <c r="B114" t="s">
+        <v>13</v>
+      </c>
+      <c r="C114" t="s">
+        <v>18</v>
+      </c>
+      <c r="D114" t="s">
+        <v>38</v>
+      </c>
+      <c r="E114" t="s">
+        <v>40</v>
+      </c>
+      <c r="F114" t="s">
+        <v>45</v>
+      </c>
+      <c r="G114">
+        <v>-49</v>
+      </c>
+      <c r="H114" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" s="1">
+        <v>1484</v>
+      </c>
+      <c r="B115" t="s">
+        <v>13</v>
+      </c>
+      <c r="C115" t="s">
+        <v>18</v>
+      </c>
+      <c r="D115" t="s">
+        <v>39</v>
+      </c>
+      <c r="E115" t="s">
+        <v>40</v>
+      </c>
+      <c r="F115" t="s">
+        <v>45</v>
+      </c>
+      <c r="G115">
+        <v>-628</v>
+      </c>
+      <c r="H115" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="1">
+        <v>1487</v>
+      </c>
+      <c r="B116" t="s">
+        <v>13</v>
+      </c>
+      <c r="C116" t="s">
+        <v>26</v>
+      </c>
+      <c r="D116" t="s">
+        <v>38</v>
+      </c>
+      <c r="E116" t="s">
+        <v>41</v>
+      </c>
+      <c r="F116" t="s">
+        <v>53</v>
+      </c>
+      <c r="G116">
+        <v>-47</v>
+      </c>
+      <c r="H116" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" s="1">
+        <v>1488</v>
+      </c>
+      <c r="B117" t="s">
+        <v>13</v>
+      </c>
+      <c r="C117" t="s">
+        <v>26</v>
+      </c>
+      <c r="D117" t="s">
+        <v>38</v>
+      </c>
+      <c r="E117" t="s">
+        <v>40</v>
+      </c>
+      <c r="F117" t="s">
+        <v>53</v>
+      </c>
+      <c r="G117">
+        <v>-24</v>
+      </c>
+      <c r="H117" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" s="1">
+        <v>1489</v>
+      </c>
+      <c r="B118" t="s">
+        <v>13</v>
+      </c>
+      <c r="C118" t="s">
+        <v>26</v>
+      </c>
+      <c r="D118" t="s">
+        <v>39</v>
+      </c>
+      <c r="E118" t="s">
+        <v>40</v>
+      </c>
+      <c r="F118" t="s">
+        <v>53</v>
+      </c>
+      <c r="G118">
+        <v>-414</v>
+      </c>
+      <c r="H118" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="1">
+        <v>1497</v>
+      </c>
+      <c r="B119" t="s">
+        <v>13</v>
+      </c>
+      <c r="C119" t="s">
+        <v>19</v>
+      </c>
+      <c r="D119" t="s">
+        <v>39</v>
+      </c>
+      <c r="E119" t="s">
+        <v>40</v>
+      </c>
+      <c r="F119" t="s">
+        <v>46</v>
+      </c>
+      <c r="G119">
+        <v>-147</v>
+      </c>
+      <c r="H119" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="1">
+        <v>1501</v>
+      </c>
+      <c r="B120" t="s">
+        <v>13</v>
+      </c>
+      <c r="C120" t="s">
+        <v>27</v>
+      </c>
+      <c r="D120" t="s">
+        <v>38</v>
+      </c>
+      <c r="E120" t="s">
+        <v>41</v>
+      </c>
+      <c r="F120" t="s">
+        <v>54</v>
+      </c>
+      <c r="G120">
+        <v>-21</v>
+      </c>
+      <c r="H120" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" s="1">
+        <v>1502</v>
+      </c>
+      <c r="B121" t="s">
+        <v>13</v>
+      </c>
+      <c r="C121" t="s">
+        <v>27</v>
+      </c>
+      <c r="D121" t="s">
+        <v>38</v>
+      </c>
+      <c r="E121" t="s">
+        <v>40</v>
+      </c>
+      <c r="F121" t="s">
+        <v>54</v>
+      </c>
+      <c r="G121">
+        <v>-11</v>
+      </c>
+      <c r="H121" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="1">
+        <v>1503</v>
+      </c>
+      <c r="B122" t="s">
+        <v>13</v>
+      </c>
+      <c r="C122" t="s">
+        <v>27</v>
+      </c>
+      <c r="D122" t="s">
+        <v>39</v>
+      </c>
+      <c r="E122" t="s">
+        <v>40</v>
+      </c>
+      <c r="F122" t="s">
+        <v>54</v>
+      </c>
+      <c r="G122">
+        <v>-384</v>
+      </c>
+      <c r="H122" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="1">
+        <v>1504</v>
+      </c>
+      <c r="B123" t="s">
+        <v>13</v>
+      </c>
+      <c r="C123" t="s">
+        <v>28</v>
+      </c>
+      <c r="D123" t="s">
+        <v>38</v>
+      </c>
+      <c r="E123" t="s">
+        <v>41</v>
+      </c>
+      <c r="F123" t="s">
+        <v>55</v>
+      </c>
+      <c r="G123">
+        <v>-22</v>
+      </c>
+      <c r="H123" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" s="1">
+        <v>1505</v>
+      </c>
+      <c r="B124" t="s">
+        <v>13</v>
+      </c>
+      <c r="C124" t="s">
+        <v>28</v>
+      </c>
+      <c r="D124" t="s">
+        <v>38</v>
+      </c>
+      <c r="E124" t="s">
+        <v>40</v>
+      </c>
+      <c r="F124" t="s">
+        <v>55</v>
+      </c>
+      <c r="G124">
+        <v>-11</v>
+      </c>
+      <c r="H124" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" s="1">
+        <v>1506</v>
+      </c>
+      <c r="B125" t="s">
+        <v>13</v>
+      </c>
+      <c r="C125" t="s">
+        <v>28</v>
+      </c>
+      <c r="D125" t="s">
+        <v>39</v>
+      </c>
+      <c r="E125" t="s">
+        <v>40</v>
+      </c>
+      <c r="F125" t="s">
+        <v>55</v>
+      </c>
+      <c r="G125">
+        <v>-256</v>
+      </c>
+      <c r="H125" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" s="1">
+        <v>1517</v>
+      </c>
+      <c r="B126" t="s">
+        <v>13</v>
+      </c>
+      <c r="C126" t="s">
+        <v>34</v>
+      </c>
+      <c r="D126" t="s">
+        <v>39</v>
+      </c>
+      <c r="E126" t="s">
+        <v>40</v>
+      </c>
+      <c r="F126" t="s">
+        <v>61</v>
+      </c>
+      <c r="G126">
+        <v>-435</v>
+      </c>
+      <c r="H126" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="1">
+        <v>1518</v>
+      </c>
+      <c r="B127" t="s">
+        <v>13</v>
+      </c>
+      <c r="C127" t="s">
+        <v>15</v>
+      </c>
+      <c r="D127" t="s">
+        <v>39</v>
+      </c>
+      <c r="E127" t="s">
+        <v>40</v>
+      </c>
+      <c r="F127" t="s">
+        <v>42</v>
+      </c>
+      <c r="G127">
+        <v>-508</v>
+      </c>
+      <c r="H127" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" s="1">
+        <v>1525</v>
+      </c>
+      <c r="B128" t="s">
+        <v>13</v>
+      </c>
+      <c r="C128" t="s">
+        <v>35</v>
+      </c>
+      <c r="D128" t="s">
+        <v>39</v>
+      </c>
+      <c r="E128" t="s">
+        <v>40</v>
+      </c>
+      <c r="F128" t="s">
+        <v>62</v>
+      </c>
+      <c r="G128">
+        <v>-220</v>
+      </c>
+      <c r="H128" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129" s="1">
+        <v>1526</v>
+      </c>
+      <c r="B129" t="s">
+        <v>13</v>
+      </c>
+      <c r="C129" t="s">
+        <v>17</v>
+      </c>
+      <c r="D129" t="s">
+        <v>39</v>
+      </c>
+      <c r="E129" t="s">
+        <v>40</v>
+      </c>
+      <c r="F129" t="s">
+        <v>44</v>
+      </c>
+      <c r="G129">
+        <v>-444</v>
+      </c>
+      <c r="H129" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" s="1">
+        <v>1532</v>
+      </c>
+      <c r="B130" t="s">
+        <v>13</v>
+      </c>
+      <c r="C130" t="s">
+        <v>25</v>
+      </c>
+      <c r="D130" t="s">
+        <v>39</v>
+      </c>
+      <c r="E130" t="s">
+        <v>40</v>
+      </c>
+      <c r="F130" t="s">
+        <v>52</v>
+      </c>
+      <c r="G130">
+        <v>-409</v>
+      </c>
+      <c r="H130" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" s="1">
+        <v>1533</v>
+      </c>
+      <c r="B131" t="s">
+        <v>13</v>
+      </c>
+      <c r="C131" t="s">
+        <v>36</v>
+      </c>
+      <c r="D131" t="s">
+        <v>39</v>
+      </c>
+      <c r="E131" t="s">
+        <v>40</v>
+      </c>
+      <c r="F131" t="s">
+        <v>63</v>
+      </c>
+      <c r="G131">
+        <v>-335</v>
+      </c>
+      <c r="H131" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132" s="1">
+        <v>1553</v>
+      </c>
+      <c r="B132" t="s">
         <v>14</v>
       </c>
-      <c r="D23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="C132" t="s">
+        <v>29</v>
+      </c>
+      <c r="D132" t="s">
+        <v>38</v>
+      </c>
+      <c r="E132" t="s">
+        <v>41</v>
+      </c>
+      <c r="F132" t="s">
+        <v>56</v>
+      </c>
+      <c r="G132">
+        <v>-11180</v>
+      </c>
+      <c r="H132" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133" s="1">
+        <v>1554</v>
+      </c>
+      <c r="B133" t="s">
+        <v>14</v>
+      </c>
+      <c r="C133" t="s">
+        <v>29</v>
+      </c>
+      <c r="D133" t="s">
+        <v>38</v>
+      </c>
+      <c r="E133" t="s">
+        <v>40</v>
+      </c>
+      <c r="F133" t="s">
+        <v>56</v>
+      </c>
+      <c r="G133">
+        <v>-5558</v>
+      </c>
+      <c r="H133" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" s="1">
+        <v>1573</v>
+      </c>
+      <c r="B134" t="s">
+        <v>14</v>
+      </c>
+      <c r="C134" t="s">
+        <v>30</v>
+      </c>
+      <c r="D134" t="s">
+        <v>38</v>
+      </c>
+      <c r="E134" t="s">
+        <v>41</v>
+      </c>
+      <c r="F134" t="s">
+        <v>57</v>
+      </c>
+      <c r="G134">
+        <v>-5976</v>
+      </c>
+      <c r="H134" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135" s="1">
+        <v>1574</v>
+      </c>
+      <c r="B135" t="s">
+        <v>14</v>
+      </c>
+      <c r="C135" t="s">
+        <v>30</v>
+      </c>
+      <c r="D135" t="s">
+        <v>38</v>
+      </c>
+      <c r="E135" t="s">
+        <v>40</v>
+      </c>
+      <c r="F135" t="s">
+        <v>57</v>
+      </c>
+      <c r="G135">
+        <v>-2988</v>
+      </c>
+      <c r="H135" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" s="1">
+        <v>1581</v>
+      </c>
+      <c r="B136" t="s">
+        <v>14</v>
+      </c>
+      <c r="C136" t="s">
+        <v>31</v>
+      </c>
+      <c r="D136" t="s">
+        <v>38</v>
+      </c>
+      <c r="E136" t="s">
+        <v>41</v>
+      </c>
+      <c r="F136" t="s">
+        <v>58</v>
+      </c>
+      <c r="G136">
+        <v>-8241</v>
+      </c>
+      <c r="H136" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137" s="1">
+        <v>1582</v>
+      </c>
+      <c r="B137" t="s">
+        <v>14</v>
+      </c>
+      <c r="C137" t="s">
+        <v>31</v>
+      </c>
+      <c r="D137" t="s">
+        <v>38</v>
+      </c>
+      <c r="E137" t="s">
+        <v>40</v>
+      </c>
+      <c r="F137" t="s">
+        <v>58</v>
+      </c>
+      <c r="G137">
+        <v>-4055</v>
+      </c>
+      <c r="H137" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" s="1">
+        <v>1587</v>
+      </c>
+      <c r="B138" t="s">
+        <v>14</v>
+      </c>
+      <c r="C138" t="s">
+        <v>20</v>
+      </c>
+      <c r="D138" t="s">
+        <v>38</v>
+      </c>
+      <c r="E138" t="s">
+        <v>41</v>
+      </c>
+      <c r="F138" t="s">
+        <v>47</v>
+      </c>
+      <c r="G138">
+        <v>-11628</v>
+      </c>
+      <c r="H138" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139" s="1">
+        <v>1588</v>
+      </c>
+      <c r="B139" t="s">
+        <v>14</v>
+      </c>
+      <c r="C139" t="s">
+        <v>20</v>
+      </c>
+      <c r="D139" t="s">
+        <v>38</v>
+      </c>
+      <c r="E139" t="s">
+        <v>40</v>
+      </c>
+      <c r="F139" t="s">
+        <v>47</v>
+      </c>
+      <c r="G139">
+        <v>-5759</v>
+      </c>
+      <c r="H139" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140" s="1">
+        <v>1595</v>
+      </c>
+      <c r="B140" t="s">
+        <v>14</v>
+      </c>
+      <c r="C140" t="s">
+        <v>32</v>
+      </c>
+      <c r="D140" t="s">
+        <v>38</v>
+      </c>
+      <c r="E140" t="s">
+        <v>41</v>
+      </c>
+      <c r="F140" t="s">
+        <v>59</v>
+      </c>
+      <c r="G140">
+        <v>-67947</v>
+      </c>
+      <c r="H140" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141" s="1">
+        <v>1596</v>
+      </c>
+      <c r="B141" t="s">
+        <v>14</v>
+      </c>
+      <c r="C141" t="s">
+        <v>32</v>
+      </c>
+      <c r="D141" t="s">
+        <v>38</v>
+      </c>
+      <c r="E141" t="s">
+        <v>40</v>
+      </c>
+      <c r="F141" t="s">
+        <v>59</v>
+      </c>
+      <c r="G141">
+        <v>-33430</v>
+      </c>
+      <c r="H141" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142" s="1">
+        <v>1599</v>
+      </c>
+      <c r="B142" t="s">
+        <v>14</v>
+      </c>
+      <c r="C142" t="s">
+        <v>21</v>
+      </c>
+      <c r="D142" t="s">
+        <v>38</v>
+      </c>
+      <c r="E142" t="s">
+        <v>41</v>
+      </c>
+      <c r="F142" t="s">
+        <v>48</v>
+      </c>
+      <c r="G142">
+        <v>-44032</v>
+      </c>
+      <c r="H142" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143" s="1">
+        <v>1600</v>
+      </c>
+      <c r="B143" t="s">
+        <v>14</v>
+      </c>
+      <c r="C143" t="s">
+        <v>21</v>
+      </c>
+      <c r="D143" t="s">
+        <v>38</v>
+      </c>
+      <c r="E143" t="s">
+        <v>40</v>
+      </c>
+      <c r="F143" t="s">
+        <v>48</v>
+      </c>
+      <c r="G143">
+        <v>-21740</v>
+      </c>
+      <c r="H143" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144" s="1">
+        <v>1611</v>
+      </c>
+      <c r="B144" t="s">
+        <v>14</v>
+      </c>
+      <c r="C144" t="s">
+        <v>22</v>
+      </c>
+      <c r="D144" t="s">
+        <v>38</v>
+      </c>
+      <c r="E144" t="s">
+        <v>41</v>
+      </c>
+      <c r="F144" t="s">
+        <v>49</v>
+      </c>
+      <c r="G144">
+        <v>-23690</v>
+      </c>
+      <c r="H144" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145" s="1">
+        <v>1612</v>
+      </c>
+      <c r="B145" t="s">
+        <v>14</v>
+      </c>
+      <c r="C145" t="s">
+        <v>22</v>
+      </c>
+      <c r="D145" t="s">
+        <v>38</v>
+      </c>
+      <c r="E145" t="s">
+        <v>40</v>
+      </c>
+      <c r="F145" t="s">
+        <v>49</v>
+      </c>
+      <c r="G145">
+        <v>-11770</v>
+      </c>
+      <c r="H145" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146" s="1">
+        <v>1629</v>
+      </c>
+      <c r="B146" t="s">
+        <v>14</v>
+      </c>
+      <c r="C146" t="s">
+        <v>23</v>
+      </c>
+      <c r="D146" t="s">
+        <v>38</v>
+      </c>
+      <c r="E146" t="s">
+        <v>41</v>
+      </c>
+      <c r="F146" t="s">
+        <v>50</v>
+      </c>
+      <c r="G146">
+        <v>-10983</v>
+      </c>
+      <c r="H146" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147" s="1">
+        <v>1630</v>
+      </c>
+      <c r="B147" t="s">
+        <v>14</v>
+      </c>
+      <c r="C147" t="s">
+        <v>23</v>
+      </c>
+      <c r="D147" t="s">
+        <v>38</v>
+      </c>
+      <c r="E147" t="s">
+        <v>40</v>
+      </c>
+      <c r="F147" t="s">
+        <v>50</v>
+      </c>
+      <c r="G147">
+        <v>-5309</v>
+      </c>
+      <c r="H147" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148" s="1">
+        <v>1637</v>
+      </c>
+      <c r="B148" t="s">
+        <v>14</v>
+      </c>
+      <c r="C148" t="s">
+        <v>24</v>
+      </c>
+      <c r="D148" t="s">
+        <v>38</v>
+      </c>
+      <c r="E148" t="s">
+        <v>41</v>
+      </c>
+      <c r="F148" t="s">
+        <v>51</v>
+      </c>
+      <c r="G148">
+        <v>-12094</v>
+      </c>
+      <c r="H148" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="A149" s="1">
+        <v>1638</v>
+      </c>
+      <c r="B149" t="s">
+        <v>14</v>
+      </c>
+      <c r="C149" t="s">
+        <v>24</v>
+      </c>
+      <c r="D149" t="s">
+        <v>38</v>
+      </c>
+      <c r="E149" t="s">
+        <v>40</v>
+      </c>
+      <c r="F149" t="s">
+        <v>51</v>
+      </c>
+      <c r="G149">
+        <v>-6011</v>
+      </c>
+      <c r="H149" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="A150" s="1">
+        <v>1717</v>
+      </c>
+      <c r="B150" t="s">
+        <v>14</v>
+      </c>
+      <c r="C150" t="s">
         <v>16</v>
       </c>
-      <c r="F23" t="s">
+      <c r="D150" t="s">
+        <v>38</v>
+      </c>
+      <c r="E150" t="s">
+        <v>41</v>
+      </c>
+      <c r="F150" t="s">
+        <v>43</v>
+      </c>
+      <c r="G150">
+        <v>-1541</v>
+      </c>
+      <c r="H150" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="A151" s="1">
+        <v>1718</v>
+      </c>
+      <c r="B151" t="s">
+        <v>14</v>
+      </c>
+      <c r="C151" t="s">
+        <v>16</v>
+      </c>
+      <c r="D151" t="s">
+        <v>38</v>
+      </c>
+      <c r="E151" t="s">
+        <v>40</v>
+      </c>
+      <c r="F151" t="s">
+        <v>43</v>
+      </c>
+      <c r="G151">
+        <v>-776</v>
+      </c>
+      <c r="H151" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="A152" s="1">
+        <v>1719</v>
+      </c>
+      <c r="B152" t="s">
+        <v>14</v>
+      </c>
+      <c r="C152" t="s">
+        <v>33</v>
+      </c>
+      <c r="D152" t="s">
+        <v>38</v>
+      </c>
+      <c r="E152" t="s">
+        <v>41</v>
+      </c>
+      <c r="F152" t="s">
+        <v>60</v>
+      </c>
+      <c r="G152">
+        <v>-9316</v>
+      </c>
+      <c r="H152" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="A153" s="1">
+        <v>1720</v>
+      </c>
+      <c r="B153" t="s">
+        <v>14</v>
+      </c>
+      <c r="C153" t="s">
+        <v>33</v>
+      </c>
+      <c r="D153" t="s">
+        <v>38</v>
+      </c>
+      <c r="E153" t="s">
+        <v>40</v>
+      </c>
+      <c r="F153" t="s">
+        <v>60</v>
+      </c>
+      <c r="G153">
+        <v>-4585</v>
+      </c>
+      <c r="H153" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154" s="1">
+        <v>1743</v>
+      </c>
+      <c r="B154" t="s">
+        <v>14</v>
+      </c>
+      <c r="C154" t="s">
+        <v>18</v>
+      </c>
+      <c r="D154" t="s">
+        <v>38</v>
+      </c>
+      <c r="E154" t="s">
+        <v>41</v>
+      </c>
+      <c r="F154" t="s">
+        <v>45</v>
+      </c>
+      <c r="G154">
+        <v>-18037</v>
+      </c>
+      <c r="H154" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="A155" s="1">
+        <v>1744</v>
+      </c>
+      <c r="B155" t="s">
+        <v>14</v>
+      </c>
+      <c r="C155" t="s">
+        <v>18</v>
+      </c>
+      <c r="D155" t="s">
+        <v>38</v>
+      </c>
+      <c r="E155" t="s">
+        <v>40</v>
+      </c>
+      <c r="F155" t="s">
+        <v>45</v>
+      </c>
+      <c r="G155">
+        <v>-9019</v>
+      </c>
+      <c r="H155" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="A156" s="1">
+        <v>1747</v>
+      </c>
+      <c r="B156" t="s">
+        <v>14</v>
+      </c>
+      <c r="C156" t="s">
+        <v>26</v>
+      </c>
+      <c r="D156" t="s">
+        <v>38</v>
+      </c>
+      <c r="E156" t="s">
+        <v>41</v>
+      </c>
+      <c r="F156" t="s">
+        <v>53</v>
+      </c>
+      <c r="G156">
+        <v>-11493</v>
+      </c>
+      <c r="H156" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="A157" s="1">
+        <v>1748</v>
+      </c>
+      <c r="B157" t="s">
+        <v>14</v>
+      </c>
+      <c r="C157" t="s">
+        <v>26</v>
+      </c>
+      <c r="D157" t="s">
+        <v>38</v>
+      </c>
+      <c r="E157" t="s">
+        <v>40</v>
+      </c>
+      <c r="F157" t="s">
+        <v>53</v>
+      </c>
+      <c r="G157">
+        <v>-5759</v>
+      </c>
+      <c r="H157" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="A158" s="1">
+        <v>1753</v>
+      </c>
+      <c r="B158" t="s">
+        <v>14</v>
+      </c>
+      <c r="C158" t="s">
         <v>19</v>
       </c>
-      <c r="G23">
-        <v>-80349</v>
-      </c>
-      <c r="H23" t="s">
-        <v>20</v>
+      <c r="D158" t="s">
+        <v>38</v>
+      </c>
+      <c r="E158" t="s">
+        <v>41</v>
+      </c>
+      <c r="F158" t="s">
+        <v>46</v>
+      </c>
+      <c r="G158">
+        <v>-3383</v>
+      </c>
+      <c r="H158" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="A159" s="1">
+        <v>1754</v>
+      </c>
+      <c r="B159" t="s">
+        <v>14</v>
+      </c>
+      <c r="C159" t="s">
+        <v>19</v>
+      </c>
+      <c r="D159" t="s">
+        <v>38</v>
+      </c>
+      <c r="E159" t="s">
+        <v>40</v>
+      </c>
+      <c r="F159" t="s">
+        <v>46</v>
+      </c>
+      <c r="G159">
+        <v>-1661</v>
+      </c>
+      <c r="H159" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="A160" s="1">
+        <v>1757</v>
+      </c>
+      <c r="B160" t="s">
+        <v>14</v>
+      </c>
+      <c r="C160" t="s">
+        <v>27</v>
+      </c>
+      <c r="D160" t="s">
+        <v>38</v>
+      </c>
+      <c r="E160" t="s">
+        <v>41</v>
+      </c>
+      <c r="F160" t="s">
+        <v>54</v>
+      </c>
+      <c r="G160">
+        <v>-9836</v>
+      </c>
+      <c r="H160" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161" s="1">
+        <v>1758</v>
+      </c>
+      <c r="B161" t="s">
+        <v>14</v>
+      </c>
+      <c r="C161" t="s">
+        <v>27</v>
+      </c>
+      <c r="D161" t="s">
+        <v>38</v>
+      </c>
+      <c r="E161" t="s">
+        <v>40</v>
+      </c>
+      <c r="F161" t="s">
+        <v>54</v>
+      </c>
+      <c r="G161">
+        <v>-4929</v>
+      </c>
+      <c r="H161" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162" s="1">
+        <v>1759</v>
+      </c>
+      <c r="B162" t="s">
+        <v>14</v>
+      </c>
+      <c r="C162" t="s">
+        <v>28</v>
+      </c>
+      <c r="D162" t="s">
+        <v>38</v>
+      </c>
+      <c r="E162" t="s">
+        <v>41</v>
+      </c>
+      <c r="F162" t="s">
+        <v>55</v>
+      </c>
+      <c r="G162">
+        <v>-6720</v>
+      </c>
+      <c r="H162" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163" s="1">
+        <v>1760</v>
+      </c>
+      <c r="B163" t="s">
+        <v>14</v>
+      </c>
+      <c r="C163" t="s">
+        <v>28</v>
+      </c>
+      <c r="D163" t="s">
+        <v>38</v>
+      </c>
+      <c r="E163" t="s">
+        <v>40</v>
+      </c>
+      <c r="F163" t="s">
+        <v>55</v>
+      </c>
+      <c r="G163">
+        <v>-3357</v>
+      </c>
+      <c r="H163" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
